--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253FCBF6-6B0C-43D4-B0E0-8A8B85A8AA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54E9EB-FF0B-4170-8EE9-A0140A7BB087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="470" windowWidth="19200" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>M4_weekly</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>m4_daily</t>
+  </si>
+  <si>
+    <t>p50loss</t>
+  </si>
+  <si>
+    <t>p90loss</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>13h+</t>
+  </si>
+  <si>
+    <t>m4_monthly</t>
   </si>
 </sst>
 </file>
@@ -112,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,11 +442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,12 +454,12 @@
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="50.54296875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -457,56 +482,67 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>1E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <v>168</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.8305033360985501</v>
-      </c>
-      <c r="I2">
-        <v>7.5700859184286706E-2</v>
-      </c>
-      <c r="J2">
-        <v>21.598772288563801</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.6494847743327998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9.4839308698262903E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>26.551910370764102</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -520,52 +556,52 @@
       <c r="F3" s="1">
         <v>168</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>2.8305033360985501</v>
+      </c>
+      <c r="J3">
+        <v>7.5700859184286706E-2</v>
+      </c>
+      <c r="K3">
+        <v>21.598772288563801</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>168</v>
+      </c>
+      <c r="I4" s="1">
         <v>10.6470938985173</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>0.16259793191504299</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>393.64675336399199</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.91654659977242</v>
-      </c>
-      <c r="I4">
-        <v>8.2863294567558601E-2</v>
-      </c>
-      <c r="J4">
-        <v>40.8570696912887</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -573,166 +609,166 @@
         <v>7</v>
       </c>
       <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.91654659977242</v>
+      </c>
+      <c r="J5">
+        <v>8.2863294567558601E-2</v>
+      </c>
+      <c r="K5">
+        <v>40.8570696912887</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.01</v>
       </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
         <v>3.4064209145483701</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>7.8396222427316295E-2</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <v>41.742642977790702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D7">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="1">
         <v>200</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>168</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="1">
         <v>16.4086691296114</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>0.33242257333183201</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>617.55311544437495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
         <v>5.0389744272223203</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>0.14075244167457199</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>40.1333233555251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
         <v>2.6969850000000002</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <v>8.5638000000000006E-2</v>
       </c>
-      <c r="J8">
+      <c r="K9">
         <v>25.057198</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
         <v>2.9156070000000001</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <v>7.6269000000000003E-2</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>30.951245</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>1E-3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <v>168</v>
-      </c>
-      <c r="H10" s="1">
-        <v>17.9047409798229</v>
-      </c>
-      <c r="I10">
-        <v>0.33365163476690102</v>
-      </c>
-      <c r="J10">
-        <v>655.79579474316597</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -746,20 +782,20 @@
       <c r="F11" s="1">
         <v>168</v>
       </c>
-      <c r="H11" s="1">
-        <v>2.93188017466235</v>
-      </c>
-      <c r="I11">
-        <v>7.3123317249618694E-2</v>
+      <c r="I11" s="1">
+        <v>17.9047409798229</v>
       </c>
       <c r="J11">
-        <v>28.1897450150365</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.33365163476690102</v>
+      </c>
+      <c r="K11">
+        <v>655.79579474316597</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -767,28 +803,31 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>1E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
         <v>168</v>
       </c>
-      <c r="H12" s="1">
-        <v>4.7845313238501799</v>
-      </c>
-      <c r="I12">
-        <v>8.2049655548137396E-2</v>
+      <c r="I12" s="1">
+        <v>2.93188017466235</v>
       </c>
       <c r="J12">
-        <v>46.912122813676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7.3123317249618694E-2</v>
+      </c>
+      <c r="K12">
+        <v>28.1897450150365</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -796,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1E-3</v>
@@ -807,121 +846,106 @@
       <c r="F13" s="1">
         <v>168</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
+        <v>4.7845313238501799</v>
+      </c>
+      <c r="J13">
+        <v>8.2049655548137396E-2</v>
+      </c>
+      <c r="K13">
+        <v>46.912122813676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>168</v>
+      </c>
+      <c r="I14" s="1">
         <v>3.4256568489382202</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>7.8023623476367404E-2</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>46.294449891251404</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1">
         <v>2.4681948541118799</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <v>8.1296332416355102E-2</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>22.1231668801551</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1">
         <v>2.8797172708705698</v>
       </c>
-      <c r="I15">
+      <c r="J16">
         <v>8.9693784459130094E-2</v>
       </c>
-      <c r="J15">
+      <c r="K16">
         <v>28.1387214506003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.44666660175531</v>
-      </c>
-      <c r="I17">
-        <v>0.1298174584541</v>
-      </c>
-      <c r="J17">
-        <v>16.642986874988399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>1E-3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2.1688713732443401</v>
-      </c>
-      <c r="I18">
-        <v>0.13595743149248801</v>
-      </c>
-      <c r="J18">
-        <v>30.985507904866601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -929,7 +953,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>1E-3</v>
@@ -937,92 +961,452 @@
       <c r="E19" s="1">
         <v>50</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
+        <v>1.44666660175531</v>
+      </c>
+      <c r="J19">
+        <v>0.1298174584541</v>
+      </c>
+      <c r="K19">
+        <v>16.642986874988399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.7621786881972099</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.136582885212886</v>
+      </c>
+      <c r="K20" s="2">
+        <v>24.567364629029498</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.1688713732443401</v>
+      </c>
+      <c r="J21">
+        <v>0.13595743149248801</v>
+      </c>
+      <c r="K21">
+        <v>30.985507904866601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1">
         <v>2.2608650663714398</v>
       </c>
-      <c r="I19">
+      <c r="J22">
         <v>0.14185608409783801</v>
       </c>
-      <c r="J19">
+      <c r="K22">
         <v>28.196347731740801</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>2.6633550241579802</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.181608907022653</v>
+      </c>
+      <c r="K23" s="2">
+        <v>44.230100888809901</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>1E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>42</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.53453446581329</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3.3774608183609799E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>39.950803257038203</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1">
         <v>4.3992172136277903</v>
       </c>
-      <c r="I21">
+      <c r="J26">
         <v>3.96223073497197E-2</v>
       </c>
-      <c r="J21">
+      <c r="K26">
         <v>59.648501471104701</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>1E-3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>1E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1">
         <v>4.1829039523568197</v>
       </c>
-      <c r="I22">
+      <c r="J27">
         <v>3.7512549576846597E-2</v>
       </c>
-      <c r="J22">
+      <c r="K27">
         <v>45.512803344470299</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>1E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>1E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
         <v>5.3913402057172197</v>
       </c>
-      <c r="I23">
+      <c r="J28">
         <v>4.5453329399599597E-2</v>
       </c>
-      <c r="J23">
+      <c r="K28">
         <v>95.558690835703899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.4822369638914501</v>
+      </c>
+      <c r="J29">
+        <v>3.3039162166202E-2</v>
+      </c>
+      <c r="K29">
+        <v>38.929181310867698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>150</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.4948489288649101</v>
+      </c>
+      <c r="J30">
+        <v>3.3644492587488403E-2</v>
+      </c>
+      <c r="K30">
+        <v>39.458377616161002</v>
+      </c>
+      <c r="L30">
+        <v>3.00505847160191E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.43563269479154E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>1E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="H33" s="1">
+        <v>42</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.2680859933141799</v>
+      </c>
+      <c r="J33">
+        <v>0.14616421362543899</v>
+      </c>
+      <c r="K33">
+        <v>28.511903687299199</v>
+      </c>
+      <c r="L33">
+        <v>0.13301715525572499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="H34" s="1">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.12318553010888</v>
+      </c>
+      <c r="J34">
+        <v>0.14024808260219801</v>
+      </c>
+      <c r="K34">
+        <v>21.9494725945708</v>
+      </c>
+      <c r="L34">
+        <v>0.12659003502329899</v>
+      </c>
+      <c r="M34">
+        <v>8.7821689185904397E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>1E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="H35" s="1">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.99719524449035302</v>
+      </c>
+      <c r="J35">
+        <v>0.135560354927377</v>
+      </c>
+      <c r="K35">
+        <v>20.7128063902958</v>
+      </c>
+      <c r="L35">
+        <v>0.121544301356057</v>
+      </c>
+      <c r="M35">
+        <v>9.2526590339239004E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>1E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.05958695110418</v>
+      </c>
+      <c r="J36">
+        <v>0.137825652728641</v>
+      </c>
+      <c r="K36">
+        <v>20.122850769566899</v>
+      </c>
+      <c r="L36">
+        <v>0.123928959665505</v>
+      </c>
+      <c r="M36">
+        <v>8.7829006351591493E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>1E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
